--- a/WorkingFolder/Tables/spending_reg.xlsx
+++ b/WorkingFolder/Tables/spending_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>spending I</t>
   </si>
@@ -31,9 +31,21 @@
     <t>spending IIIII</t>
   </si>
   <si>
+    <t>spending IIIIII</t>
+  </si>
+  <si>
+    <t>spending IIIIIII</t>
+  </si>
+  <si>
     <t>Intercept</t>
   </si>
   <si>
+    <t>UEprobAgg</t>
+  </si>
+  <si>
+    <t>UEprobInd</t>
+  </si>
+  <si>
     <t>incexp</t>
   </si>
   <si>
@@ -55,10 +67,10 @@
     <t>R2</t>
   </si>
   <si>
-    <t>3.43***</t>
-  </si>
-  <si>
-    <t>(0.30)</t>
+    <t>3.46***</t>
+  </si>
+  <si>
+    <t>(0.31)</t>
   </si>
   <si>
     <t>0.00</t>
@@ -70,10 +82,10 @@
     <t>(0.08)</t>
   </si>
   <si>
-    <t>55673</t>
-  </si>
-  <si>
-    <t>4.19***</t>
+    <t>53455</t>
+  </si>
+  <si>
+    <t>4.23***</t>
   </si>
   <si>
     <t>(0.07)</t>
@@ -85,10 +97,10 @@
     <t>(0.02)</t>
   </si>
   <si>
-    <t>50997</t>
-  </si>
-  <si>
-    <t>4.27***</t>
+    <t>48983</t>
+  </si>
+  <si>
+    <t>4.29***</t>
   </si>
   <si>
     <t>(0.22)</t>
@@ -97,34 +109,55 @@
     <t>0.07***</t>
   </si>
   <si>
-    <t>55465</t>
-  </si>
-  <si>
-    <t>3.71***</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
+    <t>53171</t>
+  </si>
+  <si>
+    <t>3.73***</t>
+  </si>
+  <si>
+    <t>(0.26)</t>
   </si>
   <si>
     <t>(0.01)</t>
   </si>
   <si>
-    <t>52099</t>
-  </si>
-  <si>
-    <t>4.59***</t>
+    <t>49986</t>
+  </si>
+  <si>
+    <t>4.67***</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>52632</t>
+  </si>
+  <si>
+    <t>3.21***</t>
+  </si>
+  <si>
+    <t>(0.72)</t>
+  </si>
+  <si>
+    <t>0.04***</t>
+  </si>
+  <si>
+    <t>76531</t>
+  </si>
+  <si>
+    <t>4.63***</t>
   </si>
   <si>
     <t>(0.20)</t>
   </si>
   <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>(0.43)</t>
-  </si>
-  <si>
-    <t>55029</t>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>(0.45)</t>
+  </si>
+  <si>
+    <t>52751</t>
   </si>
 </sst>
 </file>
@@ -482,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,171 +537,235 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/spending_reg.xlsx
+++ b/WorkingFolder/Tables/spending_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>spending I</t>
   </si>
@@ -100,34 +100,43 @@
     <t>48983</t>
   </si>
   <si>
-    <t>4.29***</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
-    <t>0.07***</t>
+    <t>4.44***</t>
+  </si>
+  <si>
+    <t>(0.21)</t>
+  </si>
+  <si>
+    <t>0.58***</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
   </si>
   <si>
     <t>53171</t>
   </si>
   <si>
-    <t>3.73***</t>
-  </si>
-  <si>
-    <t>(0.26)</t>
+    <t>2.81***</t>
+  </si>
+  <si>
+    <t>(0.34)</t>
+  </si>
+  <si>
+    <t>1.08***</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>49986</t>
+  </si>
+  <si>
+    <t>4.67***</t>
+  </si>
+  <si>
+    <t>-0.01</t>
   </si>
   <si>
     <t>(0.01)</t>
-  </si>
-  <si>
-    <t>49986</t>
-  </si>
-  <si>
-    <t>4.67***</t>
-  </si>
-  <si>
-    <t>-0.01</t>
   </si>
   <si>
     <t>52632</t>
@@ -558,16 +567,16 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -582,16 +591,16 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -623,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -637,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -665,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -685,7 +694,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -707,13 +716,13 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -727,19 +736,19 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8">

--- a/WorkingFolder/Tables/spending_reg.xlsx
+++ b/WorkingFolder/Tables/spending_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>spending I</t>
   </si>
@@ -34,139 +34,85 @@
     <t>spending IIIIII</t>
   </si>
   <si>
-    <t>spending IIIIIII</t>
-  </si>
-  <si>
-    <t>Intercept</t>
+    <t>incexp</t>
+  </si>
+  <si>
+    <t>incvar</t>
+  </si>
+  <si>
+    <t>rincvar</t>
+  </si>
+  <si>
+    <t>incskew</t>
+  </si>
+  <si>
+    <t>UEprobInd</t>
   </si>
   <si>
     <t>UEprobAgg</t>
   </si>
   <si>
-    <t>UEprobInd</t>
-  </si>
-  <si>
-    <t>incexp</t>
-  </si>
-  <si>
-    <t>incskew</t>
-  </si>
-  <si>
-    <t>incvar</t>
-  </si>
-  <si>
-    <t>rincexp</t>
-  </si>
-  <si>
-    <t>rincvar</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>3.46***</t>
-  </si>
-  <si>
-    <t>(0.31)</t>
+    <t>0.39***</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>53455</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>0.39***</t>
-  </si>
-  <si>
-    <t>(0.08)</t>
-  </si>
-  <si>
-    <t>53455</t>
-  </si>
-  <si>
-    <t>4.23***</t>
-  </si>
-  <si>
-    <t>(0.07)</t>
-  </si>
-  <si>
-    <t>-0.04*</t>
+    <t>0.58***</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>53171</t>
+  </si>
+  <si>
+    <t>1.08***</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>49986</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>(0.45)</t>
+  </si>
+  <si>
+    <t>52751</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>52632</t>
+  </si>
+  <si>
+    <t>0.04***</t>
   </si>
   <si>
     <t>(0.02)</t>
   </si>
   <si>
-    <t>48983</t>
-  </si>
-  <si>
-    <t>4.44***</t>
-  </si>
-  <si>
-    <t>(0.21)</t>
-  </si>
-  <si>
-    <t>0.58***</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
-  </si>
-  <si>
-    <t>53171</t>
-  </si>
-  <si>
-    <t>2.81***</t>
-  </si>
-  <si>
-    <t>(0.34)</t>
-  </si>
-  <si>
-    <t>1.08***</t>
-  </si>
-  <si>
-    <t>(0.15)</t>
-  </si>
-  <si>
-    <t>49986</t>
-  </si>
-  <si>
-    <t>4.67***</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>52632</t>
-  </si>
-  <si>
-    <t>3.21***</t>
-  </si>
-  <si>
-    <t>(0.72)</t>
-  </si>
-  <si>
-    <t>0.04***</t>
-  </si>
-  <si>
     <t>76531</t>
-  </si>
-  <si>
-    <t>4.63***</t>
-  </si>
-  <si>
-    <t>(0.20)</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>(0.45)</t>
-  </si>
-  <si>
-    <t>52751</t>
   </si>
 </sst>
 </file>
@@ -524,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,232 +495,135 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/spending_reg.xlsx
+++ b/WorkingFolder/Tables/spending_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>spending I</t>
   </si>
@@ -31,9 +31,6 @@
     <t>spending IIIII</t>
   </si>
   <si>
-    <t>spending IIIIII</t>
-  </si>
-  <si>
     <t>incexp</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>incskew</t>
   </si>
   <si>
-    <t>UEprobInd</t>
-  </si>
-  <si>
     <t>UEprobAgg</t>
   </si>
   <si>
@@ -95,15 +89,6 @@
   </si>
   <si>
     <t>52751</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>52632</t>
   </si>
   <si>
     <t>0.04***</t>
@@ -470,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,138 +477,115 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/spending_reg.xlsx
+++ b/WorkingFolder/Tables/spending_reg.xlsx
@@ -91,10 +91,10 @@
     <t>52751</t>
   </si>
   <si>
-    <t>0.04***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
+    <t>0.44*</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
   </si>
   <si>
     <t>76531</t>

--- a/WorkingFolder/Tables/spending_reg.xlsx
+++ b/WorkingFolder/Tables/spending_reg.xlsx
@@ -52,10 +52,10 @@
     <t>R2</t>
   </si>
   <si>
-    <t>0.39***</t>
-  </si>
-  <si>
-    <t>(0.08)</t>
+    <t>39.11***</t>
+  </si>
+  <si>
+    <t>(8.47)</t>
   </si>
   <si>
     <t>53455</t>
@@ -64,19 +64,19 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>0.58***</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
+    <t>1.86***</t>
+  </si>
+  <si>
+    <t>(0.46)</t>
   </si>
   <si>
     <t>53171</t>
   </si>
   <si>
-    <t>1.08***</t>
-  </si>
-  <si>
-    <t>(0.15)</t>
+    <t>2.49***</t>
+  </si>
+  <si>
+    <t>(0.35)</t>
   </si>
   <si>
     <t>49986</t>

--- a/WorkingFolder/Tables/spending_reg.xlsx
+++ b/WorkingFolder/Tables/spending_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>spending I</t>
   </si>
@@ -52,52 +52,49 @@
     <t>R2</t>
   </si>
   <si>
-    <t>39.11***</t>
-  </si>
-  <si>
-    <t>(8.47)</t>
-  </si>
-  <si>
-    <t>53455</t>
+    <t>36.24***</t>
+  </si>
+  <si>
+    <t>(7.46)</t>
+  </si>
+  <si>
+    <t>61422</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>1.86***</t>
-  </si>
-  <si>
-    <t>(0.46)</t>
-  </si>
-  <si>
-    <t>53171</t>
-  </si>
-  <si>
-    <t>2.49***</t>
-  </si>
-  <si>
-    <t>(0.35)</t>
-  </si>
-  <si>
-    <t>49986</t>
+    <t>0.63***</t>
+  </si>
+  <si>
+    <t>(0.12)</t>
+  </si>
+  <si>
+    <t>62959</t>
+  </si>
+  <si>
+    <t>1.07***</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>59057</t>
   </si>
   <si>
     <t>0.19</t>
   </si>
   <si>
-    <t>(0.45)</t>
-  </si>
-  <si>
-    <t>52751</t>
-  </si>
-  <si>
-    <t>0.44*</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>76531</t>
+    <t>(0.40)</t>
+  </si>
+  <si>
+    <t>60560</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>87775</t>
   </si>
 </sst>
 </file>
@@ -545,7 +542,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -565,7 +562,7 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
